--- a/biology/Biologie cellulaire et moléculaire/Microtube/Microtube.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Microtube/Microtube.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les microtubes sont de petits tubes munis d'un capuchon à visser ou à clipser. Ils sont en matière plastique, le polypropylène, capable de résister aux hautes températures (autoclavage, utilisation dans des thermocycleurs, etc.), aux basses températures (stockage dans un congélateur à -80 °C, broyage à l'azote liquide, etc.) ou aux solvants organiques.
 Ils existent en différentes contenances :
@@ -521,7 +533,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Si l'on est droitier, on tient généralement le tube dans les premiers doigts de la main gauche. On se sert du pouce pour ouvrir ou fermer le capuchon, ou de la main droite si c'est un capuchon à vis. On peut ainsi se servir de la main droite pour effectuer les pipettages avec la pipette automatique.
 Les microtubes sont à usage unique. S'ils n'ont pas besoin d'être conservés pour stocker un échantillon, ils sont jetés. Il est trop difficile de les nettoyer pour pouvoir s'en resservir, sans risquer les transcontaminations.
@@ -553,7 +567,9 @@
           <t>Fabricants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La société Eppendorf a donné son nom comme nom générique pour un microtube.
 </t>
